--- a/rcads/data/xls/03_Activities.xlsx
+++ b/rcads/data/xls/03_Activities.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="_03_Activities"/>
   </sheets>
   <definedNames>
-    <definedName name="_03_Activities">'_03_Activities'!$A$1:$G$63</definedName>
+    <definedName name="_03_Activities">'_03_Activities'!$A$1:$G$93</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -452,7 +452,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="1">
-        <v>40952</v>
+        <v>40788</v>
       </c>
       <c r="E4" s="0">
         <v>1</v>
@@ -1931,6 +1931,756 @@
       </c>
       <c r="G63" s="0">
         <v>85</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="64">
+      <c r="A64" s="0">
+        <v>65</v>
+      </c>
+      <c r="B64" s="0" t="inlineStr">
+        <is>
+          <t>Generated the RCADS-47-CG-SV-1 from RCADS-47-CG-EN</t>
+        </is>
+      </c>
+      <c r="C64" s="0">
+        <v>36</v>
+      </c>
+      <c r="D64" s="1">
+        <v>42202</v>
+      </c>
+      <c r="E64" s="0">
+        <v>1</v>
+      </c>
+      <c r="F64" s="0">
+        <v>2</v>
+      </c>
+      <c r="G64" s="0">
+        <v>86</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="65">
+      <c r="A65" s="0">
+        <v>66</v>
+      </c>
+      <c r="B65" s="0" t="inlineStr">
+        <is>
+          <t>Generated the RCADS-47-Y-SV from RCADS-47-Y-EN</t>
+        </is>
+      </c>
+      <c r="C65" s="0">
+        <v>36</v>
+      </c>
+      <c r="D65" s="1">
+        <v>42202</v>
+      </c>
+      <c r="E65" s="0">
+        <v>1</v>
+      </c>
+      <c r="F65" s="0">
+        <v>1</v>
+      </c>
+      <c r="G65" s="0">
+        <v>87</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="66">
+      <c r="A66" s="0">
+        <v>67</v>
+      </c>
+      <c r="B66" s="0" t="inlineStr">
+        <is>
+          <t>Generated the RCADS-47-CG-SV-2 from RCADS-47-CG-SV-1 and RCADS-47-CG-EN (2 item stems changed)</t>
+        </is>
+      </c>
+      <c r="C66" s="0">
+        <v>37</v>
+      </c>
+      <c r="D66" s="1">
+        <v>45750</v>
+      </c>
+      <c r="E66" s="0">
+        <v>1</v>
+      </c>
+      <c r="F66" s="0">
+        <v>88</v>
+      </c>
+      <c r="G66" s="0">
+        <v>89</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="67">
+      <c r="A67" s="0">
+        <v>68</v>
+      </c>
+      <c r="B67" s="0" t="inlineStr">
+        <is>
+          <t>Generated the RCADS-47-Y-ZH-HANS-1 from RCADS-47-Y-EN</t>
+        </is>
+      </c>
+      <c r="C67" s="0">
+        <v>38</v>
+      </c>
+      <c r="D67" s="1">
+        <v>37316</v>
+      </c>
+      <c r="E67" s="0">
+        <v>1</v>
+      </c>
+      <c r="F67" s="0">
+        <v>1</v>
+      </c>
+      <c r="G67" s="0">
+        <v>90</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="68">
+      <c r="A68" s="0">
+        <v>69</v>
+      </c>
+      <c r="B68" s="0" t="inlineStr">
+        <is>
+          <t>Generated the RCADS-47-Y-IS from RCADS-47-Y-EN</t>
+        </is>
+      </c>
+      <c r="C68" s="0">
+        <v>39</v>
+      </c>
+      <c r="D68" s="1">
+        <v>43617</v>
+      </c>
+      <c r="E68" s="0">
+        <v>1</v>
+      </c>
+      <c r="F68" s="0">
+        <v>1</v>
+      </c>
+      <c r="G68" s="0">
+        <v>91</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="69">
+      <c r="A69" s="0">
+        <v>70</v>
+      </c>
+      <c r="B69" s="0" t="inlineStr">
+        <is>
+          <t>Generated the RCADS-47-CG-IS from RCADS-47-CG-EN</t>
+        </is>
+      </c>
+      <c r="C69" s="0">
+        <v>39</v>
+      </c>
+      <c r="D69" s="1">
+        <v>43617</v>
+      </c>
+      <c r="E69" s="0">
+        <v>1</v>
+      </c>
+      <c r="F69" s="0">
+        <v>2</v>
+      </c>
+      <c r="G69" s="0">
+        <v>92</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="70">
+      <c r="A70" s="0">
+        <v>71</v>
+      </c>
+      <c r="B70" s="0" t="inlineStr">
+        <is>
+          <t>Generated the RCADS-47-Y-HU from RCADS-47-Y-EN</t>
+        </is>
+      </c>
+      <c r="C70" s="0">
+        <v>40</v>
+      </c>
+      <c r="D70" s="1">
+        <v>44256</v>
+      </c>
+      <c r="E70" s="0">
+        <v>1</v>
+      </c>
+      <c r="F70" s="0">
+        <v>1</v>
+      </c>
+      <c r="G70" s="0">
+        <v>93</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="71">
+      <c r="A71" s="0">
+        <v>72</v>
+      </c>
+      <c r="B71" s="0" t="inlineStr">
+        <is>
+          <t>Generated the RCADS-47-CG-HU from RCADS-47-CG-EN</t>
+        </is>
+      </c>
+      <c r="C71" s="0">
+        <v>40</v>
+      </c>
+      <c r="D71" s="1">
+        <v>44256</v>
+      </c>
+      <c r="E71" s="0">
+        <v>1</v>
+      </c>
+      <c r="F71" s="0">
+        <v>2</v>
+      </c>
+      <c r="G71" s="0">
+        <v>94</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="72">
+      <c r="A72" s="0">
+        <v>73</v>
+      </c>
+      <c r="B72" s="0" t="inlineStr">
+        <is>
+          <t>Generated the RCADS-47-Y-HI from RCADS-47-Y-EN</t>
+        </is>
+      </c>
+      <c r="C72" s="0">
+        <v>41</v>
+      </c>
+      <c r="D72" s="1">
+        <v>45852</v>
+      </c>
+      <c r="E72" s="0">
+        <v>1</v>
+      </c>
+      <c r="F72" s="0">
+        <v>1</v>
+      </c>
+      <c r="G72" s="0">
+        <v>95</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="73">
+      <c r="A73" s="0">
+        <v>74</v>
+      </c>
+      <c r="B73" s="0" t="inlineStr">
+        <is>
+          <t>Generated the RCADS-47-CG-HI from RCADS-47-CG-EN</t>
+        </is>
+      </c>
+      <c r="C73" s="0">
+        <v>41</v>
+      </c>
+      <c r="D73" s="1">
+        <v>45852</v>
+      </c>
+      <c r="E73" s="0">
+        <v>1</v>
+      </c>
+      <c r="F73" s="0">
+        <v>2</v>
+      </c>
+      <c r="G73" s="0">
+        <v>96</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="74">
+      <c r="A74" s="0">
+        <v>75</v>
+      </c>
+      <c r="B74" s="0" t="inlineStr">
+        <is>
+          <t>Generated the RCADS-25-Y-HI-2 from RCADS-47-Y-HI and RCADS-25-Y-EN</t>
+        </is>
+      </c>
+      <c r="C74" s="0">
+        <v>42</v>
+      </c>
+      <c r="D74" s="1">
+        <v>45860</v>
+      </c>
+      <c r="E74" s="0">
+        <v>1</v>
+      </c>
+      <c r="F74" s="0">
+        <v>97</v>
+      </c>
+      <c r="G74" s="0">
+        <v>99</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="75">
+      <c r="A75" s="0">
+        <v>76</v>
+      </c>
+      <c r="B75" s="0" t="inlineStr">
+        <is>
+          <t>Generated the RCADS-25-CG-HI from RCADS-47-CG-HI and RCADS-25-CG-EN</t>
+        </is>
+      </c>
+      <c r="C75" s="0">
+        <v>42</v>
+      </c>
+      <c r="D75" s="1">
+        <v>45860</v>
+      </c>
+      <c r="E75" s="0">
+        <v>1</v>
+      </c>
+      <c r="F75" s="0">
+        <v>98</v>
+      </c>
+      <c r="G75" s="0">
+        <v>100</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="76">
+      <c r="A76" s="0">
+        <v>77</v>
+      </c>
+      <c r="B76" s="0" t="inlineStr">
+        <is>
+          <t>Generated the RCADS-47-Y-PA from RCADS-47-Y-EN</t>
+        </is>
+      </c>
+      <c r="C76" s="0">
+        <v>41</v>
+      </c>
+      <c r="D76" s="1">
+        <v>45852</v>
+      </c>
+      <c r="E76" s="0">
+        <v>1</v>
+      </c>
+      <c r="F76" s="0">
+        <v>1</v>
+      </c>
+      <c r="G76" s="0">
+        <v>101</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="77">
+      <c r="A77" s="0">
+        <v>78</v>
+      </c>
+      <c r="B77" s="0" t="inlineStr">
+        <is>
+          <t>Generated the RCADS-47-CG-PA from RCADS-47-Y-EN</t>
+        </is>
+      </c>
+      <c r="C77" s="0">
+        <v>41</v>
+      </c>
+      <c r="D77" s="1">
+        <v>44756</v>
+      </c>
+      <c r="E77" s="0">
+        <v>1</v>
+      </c>
+      <c r="F77" s="0">
+        <v>2</v>
+      </c>
+      <c r="G77" s="0">
+        <v>102</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="78">
+      <c r="A78" s="0">
+        <v>79</v>
+      </c>
+      <c r="B78" s="0" t="inlineStr">
+        <is>
+          <t>Generated the RCADS-25-Y-PA from RCADS-47-Y-PA and RCADS-25-Y-EN</t>
+        </is>
+      </c>
+      <c r="C78" s="0">
+        <v>42</v>
+      </c>
+      <c r="D78" s="1">
+        <v>45860</v>
+      </c>
+      <c r="E78" s="0">
+        <v>1</v>
+      </c>
+      <c r="F78" s="0">
+        <v>103</v>
+      </c>
+      <c r="G78" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="79">
+      <c r="A79" s="0">
+        <v>80</v>
+      </c>
+      <c r="B79" s="0" t="inlineStr">
+        <is>
+          <t>Generated the RCADS-25-CG-PA from RCADS-47-CG-PA and RCADS-25-CG-EN</t>
+        </is>
+      </c>
+      <c r="C79" s="0">
+        <v>42</v>
+      </c>
+      <c r="D79" s="1">
+        <v>45860</v>
+      </c>
+      <c r="E79" s="0">
+        <v>1</v>
+      </c>
+      <c r="F79" s="0">
+        <v>104</v>
+      </c>
+      <c r="G79" s="0">
+        <v>106</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="80">
+      <c r="A80" s="0">
+        <v>81</v>
+      </c>
+      <c r="B80" s="0" t="inlineStr">
+        <is>
+          <t>Generated the RCADS-25-Y-ET from RCADS-47-Y-ET and RCADS-25-Y-EN</t>
+        </is>
+      </c>
+      <c r="C80" s="0">
+        <v>7</v>
+      </c>
+      <c r="D80" s="1">
+        <v>45292</v>
+      </c>
+      <c r="E80" s="0">
+        <v>1</v>
+      </c>
+      <c r="F80" s="0">
+        <v>109</v>
+      </c>
+      <c r="G80" s="0">
+        <v>107</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="81">
+      <c r="A81" s="0">
+        <v>82</v>
+      </c>
+      <c r="B81" s="0" t="inlineStr">
+        <is>
+          <t>Generated the RCADS-25-CG-ET from RCADS-47-CG-ET and RCADS-25-CG-EN</t>
+        </is>
+      </c>
+      <c r="C81" s="0">
+        <v>7</v>
+      </c>
+      <c r="D81" s="1">
+        <v>45292</v>
+      </c>
+      <c r="E81" s="0">
+        <v>1</v>
+      </c>
+      <c r="F81" s="0">
+        <v>110</v>
+      </c>
+      <c r="G81" s="0">
+        <v>108</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="82">
+      <c r="A82" s="0">
+        <v>85</v>
+      </c>
+      <c r="B82" s="0" t="inlineStr">
+        <is>
+          <t>Generated the RCADS-25-Y-EL from RCADS-47-Y-EL and RCADS-25-Y-EN</t>
+        </is>
+      </c>
+      <c r="C82" s="0">
+        <v>43</v>
+      </c>
+      <c r="D82" s="1">
+        <v>45292</v>
+      </c>
+      <c r="E82" s="0">
+        <v>1</v>
+      </c>
+      <c r="F82" s="0">
+        <v>113</v>
+      </c>
+      <c r="G82" s="0">
+        <v>111</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="83">
+      <c r="A83" s="0">
+        <v>86</v>
+      </c>
+      <c r="B83" s="0" t="inlineStr">
+        <is>
+          <t>Generated the RCADS-25-CG-EL from RCADS-47-CG-EL and RCADS-25-CG-EN</t>
+        </is>
+      </c>
+      <c r="C83" s="0">
+        <v>43</v>
+      </c>
+      <c r="D83" s="1">
+        <v>45292</v>
+      </c>
+      <c r="E83" s="0">
+        <v>1</v>
+      </c>
+      <c r="F83" s="0">
+        <v>114</v>
+      </c>
+      <c r="G83" s="0">
+        <v>112</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="84">
+      <c r="A84" s="0">
+        <v>94</v>
+      </c>
+      <c r="B84" s="0" t="inlineStr">
+        <is>
+          <t>Generated the RCADS-25-Y-HU from RCADS-47-Y-HU and RCADS-25-Y-EN</t>
+        </is>
+      </c>
+      <c r="C84" s="0">
+        <v>43</v>
+      </c>
+      <c r="D84" s="1">
+        <v>45292</v>
+      </c>
+      <c r="E84" s="0">
+        <v>1</v>
+      </c>
+      <c r="F84" s="0">
+        <v>121</v>
+      </c>
+      <c r="G84" s="0">
+        <v>119</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="85">
+      <c r="A85" s="0">
+        <v>95</v>
+      </c>
+      <c r="B85" s="0" t="inlineStr">
+        <is>
+          <t>Generated the RCADS-25-CG-HU from RCADS-47-CG-HU and RCADS-25-CG-EN</t>
+        </is>
+      </c>
+      <c r="C85" s="0">
+        <v>43</v>
+      </c>
+      <c r="D85" s="1">
+        <v>45292</v>
+      </c>
+      <c r="E85" s="0">
+        <v>1</v>
+      </c>
+      <c r="F85" s="0">
+        <v>122</v>
+      </c>
+      <c r="G85" s="0">
+        <v>120</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="86">
+      <c r="A86" s="0">
+        <v>96</v>
+      </c>
+      <c r="B86" s="0" t="inlineStr">
+        <is>
+          <t>Generated the RCADS-25-Y-IS from RCADS-47-Y-IS and RCADS-25-Y-EN</t>
+        </is>
+      </c>
+      <c r="C86" s="0">
+        <v>42</v>
+      </c>
+      <c r="D86" s="1">
+        <v>45292</v>
+      </c>
+      <c r="E86" s="0">
+        <v>1</v>
+      </c>
+      <c r="F86" s="0">
+        <v>125</v>
+      </c>
+      <c r="G86" s="0">
+        <v>123</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="87">
+      <c r="A87" s="0">
+        <v>97</v>
+      </c>
+      <c r="B87" s="0" t="inlineStr">
+        <is>
+          <t>Generated the RCADS-25-CG-IS from RCADS-47-CG-IS and RCADS-25-CG-EN</t>
+        </is>
+      </c>
+      <c r="C87" s="0">
+        <v>42</v>
+      </c>
+      <c r="D87" s="1">
+        <v>45292</v>
+      </c>
+      <c r="E87" s="0">
+        <v>1</v>
+      </c>
+      <c r="F87" s="0">
+        <v>126</v>
+      </c>
+      <c r="G87" s="0">
+        <v>124</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="88">
+      <c r="A88" s="0">
+        <v>98</v>
+      </c>
+      <c r="B88" s="0" t="inlineStr">
+        <is>
+          <t>Generated the RCADS-25-Y-SL from RCADS-47-Y-SL and RCADS-25-Y-EN</t>
+        </is>
+      </c>
+      <c r="C88" s="0">
+        <v>44</v>
+      </c>
+      <c r="D88" s="1">
+        <v>45292</v>
+      </c>
+      <c r="E88" s="0">
+        <v>1</v>
+      </c>
+      <c r="F88" s="0">
+        <v>129</v>
+      </c>
+      <c r="G88" s="0">
+        <v>127</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="89">
+      <c r="A89" s="0">
+        <v>99</v>
+      </c>
+      <c r="B89" s="0" t="inlineStr">
+        <is>
+          <t>Generated the RCADS-25-CG-SL from RCADS-47-CG-SL and RCADS-25-CG-EN</t>
+        </is>
+      </c>
+      <c r="C89" s="0">
+        <v>44</v>
+      </c>
+      <c r="D89" s="1">
+        <v>45292</v>
+      </c>
+      <c r="E89" s="0">
+        <v>1</v>
+      </c>
+      <c r="F89" s="0">
+        <v>130</v>
+      </c>
+      <c r="G89" s="0">
+        <v>128</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="90">
+      <c r="A90" s="0">
+        <v>100</v>
+      </c>
+      <c r="B90" s="0" t="inlineStr">
+        <is>
+          <t>Generated the RCADS-25-Y-FI from RCADS-47-Y-FI and RCADS-25-Y-EN</t>
+        </is>
+      </c>
+      <c r="C90" s="0">
+        <v>42</v>
+      </c>
+      <c r="D90" s="1">
+        <v>45292</v>
+      </c>
+      <c r="E90" s="0">
+        <v>1</v>
+      </c>
+      <c r="F90" s="0">
+        <v>117</v>
+      </c>
+      <c r="G90" s="0">
+        <v>115</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="91">
+      <c r="A91" s="0">
+        <v>101</v>
+      </c>
+      <c r="B91" s="0" t="inlineStr">
+        <is>
+          <t>Generated the RCADS-25-CG-FI from RCADS-47-CG-FI and RCADS-25-CG-EN</t>
+        </is>
+      </c>
+      <c r="C91" s="0">
+        <v>42</v>
+      </c>
+      <c r="D91" s="1">
+        <v>45292</v>
+      </c>
+      <c r="E91" s="0">
+        <v>1</v>
+      </c>
+      <c r="F91" s="0">
+        <v>118</v>
+      </c>
+      <c r="G91" s="0">
+        <v>116</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="92">
+      <c r="A92" s="0">
+        <v>102</v>
+      </c>
+      <c r="B92" s="0" t="inlineStr">
+        <is>
+          <t>Generated the RCADS-47-Y-KO from RCADS-47-Y-EN</t>
+        </is>
+      </c>
+      <c r="C92" s="0">
+        <v>45</v>
+      </c>
+      <c r="D92" s="1">
+        <v>41082</v>
+      </c>
+      <c r="E92" s="0">
+        <v>1</v>
+      </c>
+      <c r="F92" s="0">
+        <v>1</v>
+      </c>
+      <c r="G92" s="0">
+        <v>131</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="93">
+      <c r="A93" s="0">
+        <v>103</v>
+      </c>
+      <c r="B93" s="0" t="inlineStr">
+        <is>
+          <t>Generated the RCADS-47-CG-KO from RCADS-47-CG-EN</t>
+        </is>
+      </c>
+      <c r="C93" s="0">
+        <v>45</v>
+      </c>
+      <c r="D93" s="1">
+        <v>41082</v>
+      </c>
+      <c r="E93" s="0">
+        <v>1</v>
+      </c>
+      <c r="F93" s="0">
+        <v>2</v>
+      </c>
+      <c r="G93" s="0">
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/rcads/data/xls/03_Activities.xlsx
+++ b/rcads/data/xls/03_Activities.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="_03_Activities"/>
   </sheets>
   <definedNames>
-    <definedName name="_03_Activities">'_03_Activities'!$A$1:$G$93</definedName>
+    <definedName name="_03_Activities">'_03_Activities'!$A$1:$G$101</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t>Generated the RCADS-47-Y-FR-1 from RCADS-47-Y-EN</t>
+          <t>Generated the RCADS-47-Y-FR-FR-1 from RCADS-47-Y-EN</t>
         </is>
       </c>
       <c r="C30" s="0">
@@ -2681,6 +2681,203 @@
       </c>
       <c r="G93" s="0">
         <v>132</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="94">
+      <c r="A94" s="0">
+        <v>104</v>
+      </c>
+      <c r="B94" s="0" t="inlineStr">
+        <is>
+          <t>Generated the RCADS-25-Y-FR-FR-1 from RCADS-47-Y-FR-FR-1 and RCADS-25-Y-EN</t>
+        </is>
+      </c>
+      <c r="C94" s="0">
+        <v>46</v>
+      </c>
+      <c r="D94" s="1">
+        <v>45292</v>
+      </c>
+      <c r="E94" s="0">
+        <v>1</v>
+      </c>
+      <c r="F94" s="0">
+        <v>133</v>
+      </c>
+      <c r="G94" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="95">
+      <c r="A95" s="0">
+        <v>105</v>
+      </c>
+      <c r="B95" s="0" t="inlineStr">
+        <is>
+          <t>Generated the RCADS-25-Y-FR-CA-2 from RCADS-47-Y-FR-FR-1 and RCADS-25-Y-EN</t>
+        </is>
+      </c>
+      <c r="C95" s="0">
+        <v>47</v>
+      </c>
+      <c r="D95" s="1">
+        <v>45133</v>
+      </c>
+      <c r="E95" s="0">
+        <v>1</v>
+      </c>
+      <c r="F95" s="0">
+        <v>135</v>
+      </c>
+      <c r="G95" s="0">
+        <v>136</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="96">
+      <c r="A96" s="0">
+        <v>106</v>
+      </c>
+      <c r="B96" s="0" t="inlineStr">
+        <is>
+          <t>Generated the RCADS-25-Y-FR-FR-2 from RCADS-47-Y-FR-FR-2 and RCADS-25-Y-EN</t>
+        </is>
+      </c>
+      <c r="C96" s="0">
+        <v>42</v>
+      </c>
+      <c r="D96" s="1">
+        <v>45905</v>
+      </c>
+      <c r="E96" s="0">
+        <v>1</v>
+      </c>
+      <c r="F96" s="0">
+        <v>137</v>
+      </c>
+      <c r="G96" s="0">
+        <v>138</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="97">
+      <c r="A97" s="0">
+        <v>107</v>
+      </c>
+      <c r="B97" s="0" t="inlineStr">
+        <is>
+          <t>Generated the RCADS-47-CG-FR-2 from RCADS-47-FR-FR-1 and RCADS-47-CG-EN</t>
+        </is>
+      </c>
+      <c r="C97" s="0">
+        <v>48</v>
+      </c>
+      <c r="D97" s="1">
+        <v>45272</v>
+      </c>
+      <c r="E97" s="0">
+        <v>1</v>
+      </c>
+      <c r="F97" s="0">
+        <v>139</v>
+      </c>
+      <c r="G97" s="0">
+        <v>140</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="98">
+      <c r="A98" s="0">
+        <v>108</v>
+      </c>
+      <c r="B98" s="0" t="inlineStr">
+        <is>
+          <t>Generated the RCADS-47-CG-FR-3 from RCADS-47-Y-FR-FR-1, RCADS-47-CG-FR-1, and RCADS-47-CG-FR-2</t>
+        </is>
+      </c>
+      <c r="C98" s="0">
+        <v>21</v>
+      </c>
+      <c r="D98" s="1">
+        <v>45441</v>
+      </c>
+      <c r="E98" s="0">
+        <v>1</v>
+      </c>
+      <c r="F98" s="0">
+        <v>141</v>
+      </c>
+      <c r="G98" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="99">
+      <c r="A99" s="0">
+        <v>109</v>
+      </c>
+      <c r="B99" s="0" t="inlineStr">
+        <is>
+          <t>Generated the RCADS-47-CG-FR-1 from</t>
+        </is>
+      </c>
+      <c r="C99" s="0">
+        <v>49</v>
+      </c>
+      <c r="D99" s="1">
+        <v>44940</v>
+      </c>
+      <c r="E99" s="0">
+        <v>1</v>
+      </c>
+      <c r="G99" s="0">
+        <v>143</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="100">
+      <c r="A100" s="0">
+        <v>110</v>
+      </c>
+      <c r="B100" s="0" t="inlineStr">
+        <is>
+          <t>Generated the RCADS-25-Y-KO from RCADS-47-Y-KO and RCADS-25-Y-EN</t>
+        </is>
+      </c>
+      <c r="C100" s="0">
+        <v>42</v>
+      </c>
+      <c r="D100" s="1">
+        <v>45292</v>
+      </c>
+      <c r="E100" s="0">
+        <v>1</v>
+      </c>
+      <c r="F100" s="0">
+        <v>146</v>
+      </c>
+      <c r="G100" s="0">
+        <v>144</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="101">
+      <c r="A101" s="0">
+        <v>111</v>
+      </c>
+      <c r="B101" s="0" t="inlineStr">
+        <is>
+          <t>Generated the RCADS-25-CG-KO from RCADS-47-CG-KO and RCADS-25-CG-EN</t>
+        </is>
+      </c>
+      <c r="C101" s="0">
+        <v>42</v>
+      </c>
+      <c r="D101" s="1">
+        <v>45292</v>
+      </c>
+      <c r="E101" s="0">
+        <v>1</v>
+      </c>
+      <c r="F101" s="0">
+        <v>147</v>
+      </c>
+      <c r="G101" s="0">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/rcads/data/xls/03_Activities.xlsx
+++ b/rcads/data/xls/03_Activities.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="_03_Activities"/>
   </sheets>
   <definedNames>
-    <definedName name="_03_Activities">'_03_Activities'!$A$1:$G$101</definedName>
+    <definedName name="_03_Activities">'_03_Activities'!$A$1:$G$105</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -2880,6 +2880,106 @@
         <v>145</v>
       </c>
     </row>
+    <row outlineLevel="0" r="102">
+      <c r="A102" s="0">
+        <v>112</v>
+      </c>
+      <c r="B102" s="0" t="inlineStr">
+        <is>
+          <t>Generated the RCADS-25-Y-SR from RCADS-47-Y-SR and RCADS-25-Y-EN</t>
+        </is>
+      </c>
+      <c r="C102" s="0">
+        <v>24</v>
+      </c>
+      <c r="D102" s="1">
+        <v>45772</v>
+      </c>
+      <c r="E102" s="0">
+        <v>1</v>
+      </c>
+      <c r="F102" s="0">
+        <v>150</v>
+      </c>
+      <c r="G102" s="0">
+        <v>148</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="103">
+      <c r="A103" s="0">
+        <v>113</v>
+      </c>
+      <c r="B103" s="0" t="inlineStr">
+        <is>
+          <t>Generated the RCADS-25-CG-SR from RCADS-47-CG-SR and RCADS-25-CG-EN</t>
+        </is>
+      </c>
+      <c r="C103" s="0">
+        <v>24</v>
+      </c>
+      <c r="D103" s="1">
+        <v>45772</v>
+      </c>
+      <c r="E103" s="0">
+        <v>1</v>
+      </c>
+      <c r="F103" s="0">
+        <v>151</v>
+      </c>
+      <c r="G103" s="0">
+        <v>149</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="104">
+      <c r="A104" s="0">
+        <v>114</v>
+      </c>
+      <c r="B104" s="0" t="inlineStr">
+        <is>
+          <t>Generated the RCADS-47-CG-MN from RCADS-47-CG-EN</t>
+        </is>
+      </c>
+      <c r="C104" s="0">
+        <v>50</v>
+      </c>
+      <c r="D104" s="1">
+        <v>45901</v>
+      </c>
+      <c r="E104" s="0">
+        <v>1</v>
+      </c>
+      <c r="F104" s="0">
+        <v>2</v>
+      </c>
+      <c r="G104" s="0">
+        <v>152</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="105">
+      <c r="A105" s="0">
+        <v>115</v>
+      </c>
+      <c r="B105" s="0" t="inlineStr">
+        <is>
+          <t>Generated the RCADS-47-Y-MN from RCADS-47-Y-EN</t>
+        </is>
+      </c>
+      <c r="C105" s="0">
+        <v>50</v>
+      </c>
+      <c r="D105" s="1">
+        <v>45901</v>
+      </c>
+      <c r="E105" s="0">
+        <v>1</v>
+      </c>
+      <c r="F105" s="0">
+        <v>1</v>
+      </c>
+      <c r="G105" s="0">
+        <v>153</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rcads/data/xls/03_Activities.xlsx
+++ b/rcads/data/xls/03_Activities.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="_03_Activities"/>
   </sheets>
   <definedNames>
-    <definedName name="_03_Activities">'_03_Activities'!$A$1:$G$105</definedName>
+    <definedName name="_03_Activities">'_03_Activities'!$A$1:$G$110</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G105"/>
+  <dimension ref="A1:G110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -2980,6 +2980,131 @@
         <v>153</v>
       </c>
     </row>
+    <row outlineLevel="0" r="106">
+      <c r="A106" s="0">
+        <v>116</v>
+      </c>
+      <c r="B106" s="0" t="inlineStr">
+        <is>
+          <t>Generated the RCADS-25-CG-AR from RCADS-47-CG-AR and RCADS-25-CG-EN</t>
+        </is>
+      </c>
+      <c r="C106" s="0">
+        <v>51</v>
+      </c>
+      <c r="D106" s="1">
+        <v>45938</v>
+      </c>
+      <c r="E106" s="0">
+        <v>1</v>
+      </c>
+      <c r="F106" s="0">
+        <v>154</v>
+      </c>
+      <c r="G106" s="0">
+        <v>155</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="107">
+      <c r="A107" s="0">
+        <v>117</v>
+      </c>
+      <c r="B107" s="0" t="inlineStr">
+        <is>
+          <t>Generated the RCADS-47-Y-IT from RCADS-47-Y-EN</t>
+        </is>
+      </c>
+      <c r="C107" s="0">
+        <v>52</v>
+      </c>
+      <c r="D107" s="1">
+        <v>45682</v>
+      </c>
+      <c r="E107" s="0">
+        <v>1</v>
+      </c>
+      <c r="F107" s="0">
+        <v>1</v>
+      </c>
+      <c r="G107" s="0">
+        <v>156</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="108">
+      <c r="A108" s="0">
+        <v>118</v>
+      </c>
+      <c r="B108" s="0" t="inlineStr">
+        <is>
+          <t>Generated the RCADS-47-CG-IT from RCADS-47-CG-EN</t>
+        </is>
+      </c>
+      <c r="C108" s="0">
+        <v>52</v>
+      </c>
+      <c r="D108" s="1">
+        <v>45682</v>
+      </c>
+      <c r="E108" s="0">
+        <v>1</v>
+      </c>
+      <c r="F108" s="0">
+        <v>2</v>
+      </c>
+      <c r="G108" s="0">
+        <v>157</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="109">
+      <c r="A109" s="0">
+        <v>119</v>
+      </c>
+      <c r="B109" s="0" t="inlineStr">
+        <is>
+          <t>Generated the RCADS-25-Y-MN from RCADS-47-Y-MN and RCADS-25-Y-MN</t>
+        </is>
+      </c>
+      <c r="C109" s="0">
+        <v>51</v>
+      </c>
+      <c r="D109" s="1">
+        <v>45955</v>
+      </c>
+      <c r="E109" s="0">
+        <v>1</v>
+      </c>
+      <c r="F109" s="0">
+        <v>160</v>
+      </c>
+      <c r="G109" s="0">
+        <v>161</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="110">
+      <c r="A110" s="0">
+        <v>120</v>
+      </c>
+      <c r="B110" s="0" t="inlineStr">
+        <is>
+          <t>Generated the RCADS-25-CG-MN from RCADS-47-CG-MN and RCADS-25-CG-MN</t>
+        </is>
+      </c>
+      <c r="C110" s="0">
+        <v>51</v>
+      </c>
+      <c r="D110" s="1">
+        <v>45956</v>
+      </c>
+      <c r="E110" s="0">
+        <v>1</v>
+      </c>
+      <c r="F110" s="0">
+        <v>158</v>
+      </c>
+      <c r="G110" s="0">
+        <v>159</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
